--- a/Documentation/List of Flexbox Features.xlsx
+++ b/Documentation/List of Flexbox Features.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Data\Demo-projects\Quackathon\FlexBox\StayFlexy\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A2049-BE40-4999-8BE1-4655F4F5AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10A6FB-914A-4331-B9C0-6B7CBCAB679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33465" yWindow="3045" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Flex Properties To Use" sheetId="2" r:id="rId1"/>
-    <sheet name="Possible Layout" sheetId="3" r:id="rId2"/>
-    <sheet name="Data from MDN" sheetId="1" r:id="rId3"/>
+    <sheet name="(1) Flex Properties To Use" sheetId="2" r:id="rId1"/>
+    <sheet name="(2) Possible Layout" sheetId="3" r:id="rId2"/>
+    <sheet name="(3) Data from MDN" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3746D3-0A6F-4ABF-AD40-B71DD0CB0FCE}">
   <dimension ref="B2:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/List of Flexbox Features.xlsx
+++ b/Documentation/List of Flexbox Features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Data\Demo-projects\Quackathon\FlexBox\StayFlexy\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Data\Demo-projects\Quackathon\StayFlexy\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A10A6FB-914A-4331-B9C0-6B7CBCAB679C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8824F-0532-4919-BF57-50D0595ECB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33465" yWindow="3045" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33300" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(1) Flex Properties To Use" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="160">
   <si>
     <t>flex-direction</t>
   </si>
@@ -597,6 +597,12 @@
   </si>
   <si>
     <t>This will contain the 10 radio buttons/input fields needed control the CSS flex container on the left in real time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input gap </t>
+  </si>
+  <si>
+    <t>row-gap`</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,8 +759,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -911,11 +923,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -940,7 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1009,52 +1035,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,15 +1076,62 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CF1799-15CB-42F1-93B6-83BE8C499418}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1432,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="17"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1403,24 +1442,24 @@
     </row>
     <row r="2" spans="1:10" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="116" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1431,14 +1470,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1446,14 +1485,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="70"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1470,18 +1509,18 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="70"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="111" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -1492,29 +1531,30 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="B11" s="111"/>
+      <c r="C11" s="111" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="70" t="s">
+      <c r="B12" s="112"/>
+      <c r="C12" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="69" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1548,12 +1588,12 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="70" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
@@ -1610,20 +1650,20 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70"/>
-      <c r="C25" s="70" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="70"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="111" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1634,7 +1674,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="B27" s="111"/>
+      <c r="C27" s="111" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1642,7 +1683,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="111" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -1650,7 +1692,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="111" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -1658,7 +1701,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="B30" s="111"/>
+      <c r="C30" s="111" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -1666,50 +1710,50 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="112"/>
+      <c r="C31" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="70"/>
+      <c r="E31" s="69"/>
     </row>
     <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="69" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70" t="s">
+      <c r="D33" s="68"/>
+      <c r="E33" s="69" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="69" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1719,7 +1763,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1729,48 +1773,48 @@
     </row>
     <row r="37" spans="1:10" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="77"/>
+      <c r="E39" s="76" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="81" t="s">
+      <c r="D40" s="80"/>
+      <c r="E40" s="79" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="116" t="s">
         <v>107</v>
       </c>
       <c r="E41" t="s">
@@ -1778,27 +1822,30 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="B42" s="111"/>
+      <c r="C42" s="111" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="B43" s="111"/>
+      <c r="C43" s="111" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="B44" s="111"/>
+      <c r="C44" s="111" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70" t="s">
+      <c r="B45" s="112"/>
+      <c r="C45" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="70"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
@@ -1831,20 +1878,20 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="70"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="69"/>
+      <c r="C49" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="70"/>
+      <c r="E49" s="69"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="111" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="9" t="s">
@@ -1855,56 +1902,58 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="B51" s="111"/>
+      <c r="C51" s="111" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="B52" s="111"/>
+      <c r="C52" s="111" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="70"/>
-      <c r="C53" s="70" t="s">
+      <c r="B53" s="112"/>
+      <c r="C53" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="70"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="69"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="E54" s="81" t="s">
+      <c r="E54" s="79" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="81" t="s">
+      <c r="E55" s="79" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="115">
         <v>0</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -1915,15 +1964,15 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="C57" s="111" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="72"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1934,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3746D3-0A6F-4ABF-AD40-B71DD0CB0FCE}">
   <dimension ref="B2:Z35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,780 +2002,801 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="30"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="106" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="30"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="29"/>
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="96" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="30"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="29"/>
     </row>
     <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="97" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="97" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="30"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="30"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="30"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="29"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
     </row>
     <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="97" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="97" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="30"/>
-      <c r="V10" s="87" t="s">
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="29"/>
+      <c r="V10" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
+      <c r="W10" s="83"/>
+      <c r="X10" s="83"/>
+      <c r="Y10" s="83"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="85" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="30"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="108"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="29"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="81"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="86" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="30"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="108"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="29"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="81"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="30"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="108"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="29"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="81"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="97" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="30"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="108"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="29"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="81"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="30"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="85" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="30"/>
-    </row>
-    <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="86" t="s">
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="29"/>
+    </row>
+    <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="30"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="30"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="30"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="T21" s="30"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="30"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="84" t="s">
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="29"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="29"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="29"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="85" t="s">
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="30"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="86" t="s">
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="30"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="30"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="30"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="88" t="s">
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="O28" s="89"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="92" t="s">
+      <c r="O28" s="99"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="R28" s="93"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="30"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="18"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="83" t="s">
+      <c r="R28" s="103"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="29"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="29"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="30"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="30"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="30"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="30"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="66"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="29"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="29"/>
+      <c r="V32" t="s">
+        <v>158</v>
+      </c>
+      <c r="W32" s="107"/>
+      <c r="X32" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y32" s="107"/>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="29"/>
+      <c r="V34" t="s">
+        <v>71</v>
+      </c>
+      <c r="W34" s="107"/>
+      <c r="Y34" s="107"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:R19"/>
+    <mergeCell ref="N31:R32"/>
+    <mergeCell ref="D23:J25"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="N24:R25"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="Q28:R29"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="V10:Y14"/>
     <mergeCell ref="D6:F8"/>
@@ -2737,14 +2807,6 @@
     <mergeCell ref="N5:R7"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="N12:R13"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:R19"/>
-    <mergeCell ref="N31:R32"/>
-    <mergeCell ref="D23:J25"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="N24:R25"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="Q28:R29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2754,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -2817,20 +2879,20 @@
       <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
     </row>
@@ -2844,18 +2906,18 @@
       <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
@@ -2869,18 +2931,18 @@
       <c r="E8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
@@ -2894,18 +2956,18 @@
       <c r="E9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
